--- a/sql.xlsx
+++ b/sql.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636AC1C-E2FF-415D-A36E-E780AB48FE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B9EB3-94EA-4C7F-BAA8-5EFB94A1FEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>char(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户账号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>char(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decimal（2,2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品类型名称   TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +259,6 @@
   </si>
   <si>
     <t>完成状态        Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID          ComID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,20 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use exam;
-create table ComSelectInfo(
-    id char(15) not null ,
-    OrderID char(15) not null ,
-    Number int default 1,
-    Description varchar(255),
-    constraint Fk_OrderID FOREIGN KEY(OrderID)
-        references orderinfo(OrderID)
-     constraint Fk_id FOREIGN KEY(id)
-        references milktea(id)    );
-ALTER TABLE ComSelectInfo ADD PRIMARY KEY(ID,OrderID);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户ID     OpenID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,20 +324,6 @@
   </si>
   <si>
     <t>客户ID        OpenID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use exam;
-create table OrderInfo(
-    OpenID varchar(255) not null ,
-    OrderID char(15) not null ,
-    Time datetime not null ,
-    Total decimal(6,2) not null ,
-    Status int not null,
-    constraint Fk_penID FOREIGN KEY(OpenID)
-        references CusAccInfo(OpenID)
-);
-ALTER TABLE OrderInfo ADD PRIMARY KEY(OpenID,OrderID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,6 +335,54 @@
     NickName char(20),
     Address varchar(255)
 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格            Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal（6,2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户账号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table OrderInfo(    
+   OrderID char(15) not null ,
+   OpenID varchar(255) not null ,
+    Time datetime not null ,
+    Total decimal(6,2) not null ,
+    Status int not null,
+    constraint Fk_penID FOREIGN KEY(OpenID)
+        references CusAccInfo(OpenID)
+);
+ALTER TABLE OrderInfo ADD PRIMARY KEY(OrderID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID             ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use exam;
+create table ComSelectInfo(
+     OrderID char(15) not null ,
+    id char(15) not null ,
+    Number int default 1,
+    Description varchar(255),   
+    Price decimal(6,2),   
+    constraint Fk_OrderID FOREIGN KEY(OrderID)
+        references orderinfo(OrderID),
+     constraint Fk_id FOREIGN KEY(id)
+        references milktea(id)    );
+ALTER TABLE ComSelectInfo ADD PRIMARY KEY(OrderID,ID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,6 +525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -532,15 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -844,40 +848,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="A1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -893,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
@@ -904,15 +908,15 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -929,17 +933,17 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -954,18 +958,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -977,13 +981,13 @@
         <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -996,40 +1000,40 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="A8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1045,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
@@ -1056,15 +1060,15 @@
       <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -1079,20 +1083,20 @@
         <v>11</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1100,18 +1104,18 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1121,18 +1125,18 @@
         <v>11</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1140,36 +1144,36 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1182,11 +1186,11 @@
         <v>11</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1199,40 +1203,40 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="A18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1248,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>8</v>
@@ -1259,21 +1263,21 @@
       <c r="H20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1282,20 +1286,20 @@
         <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1305,15 +1309,15 @@
         <v>11</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -1326,15 +1330,15 @@
         <v>11</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1343,22 +1347,22 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1366,11 +1370,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -1383,40 +1387,40 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11" t="s">
+      <c r="A27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="A28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1432,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>8</v>
@@ -1443,93 +1447,87 @@
       <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1538,37 +1536,36 @@
       <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="H33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1578,86 +1575,99 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="36" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>0</v>
@@ -1665,148 +1675,129 @@
       <c r="C40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
+      <c r="H42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="A47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I1:M6"/>
-    <mergeCell ref="I8:M16"/>
-    <mergeCell ref="I18:M25"/>
-    <mergeCell ref="I27:M34"/>
-    <mergeCell ref="I37:M43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A18:H18"/>
@@ -1815,11 +1806,11 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I1:M6"/>
+    <mergeCell ref="I8:M16"/>
+    <mergeCell ref="I18:M25"/>
+    <mergeCell ref="I27:M33"/>
+    <mergeCell ref="I36:M42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql.xlsx
+++ b/sql.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B9EB3-94EA-4C7F-BAA8-5EFB94A1FEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6E9FB4-D9D1-494A-8C88-98020A47EA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,15 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -545,6 +536,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +834,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:M42"/>
+      <selection activeCell="I27" sqref="I27:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -848,40 +848,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -908,11 +908,11 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -935,11 +935,11 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -958,11 +958,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -983,11 +983,11 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1000,40 +1000,40 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1060,11 +1060,11 @@
       <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1085,11 +1085,11 @@
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1104,11 +1104,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1125,11 +1125,11 @@
         <v>11</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1144,11 +1144,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1186,11 +1186,11 @@
         <v>11</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1203,40 +1203,40 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1263,11 +1263,11 @@
       <c r="H20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1288,11 +1288,11 @@
       <c r="H21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1309,11 +1309,11 @@
         <v>11</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1330,11 +1330,11 @@
         <v>11</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1370,11 +1370,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -1387,40 +1387,40 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1447,11 +1447,11 @@
       <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1472,11 +1472,11 @@
       <c r="H30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1495,11 +1495,11 @@
         <v>11</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1516,11 +1516,11 @@
         <v>11</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1539,11 +1539,11 @@
       <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -1576,40 +1576,40 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="7" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1636,11 +1636,11 @@
       <c r="H38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -1659,11 +1659,11 @@
         <v>11</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -1684,11 +1684,11 @@
         <v>11</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -1726,11 +1726,11 @@
       <c r="H42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -1747,56 +1747,56 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I1:M6"/>
+    <mergeCell ref="I8:M16"/>
+    <mergeCell ref="I18:M25"/>
+    <mergeCell ref="I27:M33"/>
+    <mergeCell ref="I36:M42"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:H8"/>
@@ -1806,11 +1806,11 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I1:M6"/>
-    <mergeCell ref="I8:M16"/>
-    <mergeCell ref="I18:M25"/>
-    <mergeCell ref="I27:M33"/>
-    <mergeCell ref="I36:M42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A37:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql.xlsx
+++ b/sql.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6E9FB4-D9D1-494A-8C88-98020A47EA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404C468-A279-4C37-90E4-55E62CBC2E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>char(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,19 +351,6 @@
   </si>
   <si>
     <t>客户账号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table OrderInfo(    
-   OrderID char(15) not null ,
-   OpenID varchar(255) not null ,
-    Time datetime not null ,
-    Total decimal(6,2) not null ,
-    Status int not null,
-    constraint Fk_penID FOREIGN KEY(OpenID)
-        references CusAccInfo(OpenID)
-);
-ALTER TABLE OrderInfo ADD PRIMARY KEY(OrderID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,6 +370,50 @@
      constraint Fk_id FOREIGN KEY(id)
         references milktea(id)    );
 ALTER TABLE ComSelectInfo ADD PRIMARY KEY(OrderID,ID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户地址       Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话       PhoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名       Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table OrderInfo(    
+   OrderID char(15) not null ,
+   OpenID varchar(255) not null ,
+    Time datetime not null ,
+    Total decimal(6,2) not null ,
+    Status int not null,
+    Address varchat(255),
+    PhoneNum char(15),
+    Name char(10),
+    constraint Fk_penID FOREIGN KEY(OpenID)
+        references CusAccInfo(OpenID)
+);
+ALTER TABLE OrderInfo ADD PRIMARY KEY(OrderID);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,6 +556,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -536,15 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,9 +862,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I27" sqref="I27:M33"/>
     </sheetView>
   </sheetViews>
@@ -848,40 +879,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -908,11 +939,11 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -935,11 +966,11 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -958,11 +989,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -983,11 +1014,11 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1000,40 +1031,40 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1060,11 +1091,11 @@
       <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1085,11 +1116,11 @@
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1104,11 +1135,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1125,11 +1156,11 @@
         <v>11</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1144,11 +1175,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1165,11 +1196,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1186,11 +1217,11 @@
         <v>11</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1203,40 +1234,40 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="11" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1263,11 +1294,11 @@
       <c r="H20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1288,11 +1319,11 @@
       <c r="H21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1309,11 +1340,11 @@
         <v>11</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1330,11 +1361,11 @@
         <v>11</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1351,11 +1382,11 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1370,11 +1401,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -1387,40 +1418,40 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1447,11 +1478,11 @@
       <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1472,11 +1503,11 @@
       <c r="H30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1495,11 +1526,11 @@
         <v>11</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1516,11 +1547,11 @@
         <v>11</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1539,11 +1570,11 @@
       <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -1565,239 +1596,284 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="I51" s="9"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" ht="28" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="I55" s="9"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I1:M6"/>
-    <mergeCell ref="I8:M16"/>
-    <mergeCell ref="I18:M25"/>
-    <mergeCell ref="I27:M33"/>
-    <mergeCell ref="I36:M42"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A18:H18"/>
@@ -1806,11 +1882,11 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I1:M6"/>
+    <mergeCell ref="I8:M16"/>
+    <mergeCell ref="I18:M25"/>
+    <mergeCell ref="I27:M33"/>
+    <mergeCell ref="I49:M55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql.xlsx
+++ b/sql.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404C468-A279-4C37-90E4-55E62CBC2E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D359366-AAF5-46F1-8D5F-3E268EC68617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,18 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use exam;
-create table milktea(
-    id char(15) primary key not null ,
-    Type int ,
-    Price decimal(6,2) not null ,
-    Type_Name varchar(255),
-    image varchar(255),
-    Name varchar(30) not null
-)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户ID     OpenID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +402,18 @@
         references CusAccInfo(OpenID)
 );
 ALTER TABLE OrderInfo ADD PRIMARY KEY(OrderID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use exam;
+create table milktea(
+    id char(15) primary key not null ,
+    Type int ,
+    Price decimal(6,2) not null ,
+    TypeName varchar(255),
+    image varchar(255),
+    Name varchar(30) not null
+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,15 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -576,6 +567,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -879,40 +879,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -939,11 +939,11 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -966,11 +966,11 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -989,11 +989,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1014,11 +1014,11 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1031,40 +1031,40 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1091,15 +1091,15 @@
       <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -1116,11 +1116,11 @@
       <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1135,18 +1135,18 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1156,11 +1156,11 @@
         <v>11</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1175,11 +1175,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1196,11 +1196,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1217,11 +1217,11 @@
         <v>11</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -1234,40 +1234,40 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1294,15 +1294,15 @@
       <c r="H20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>64</v>
@@ -1319,11 +1319,11 @@
       <c r="H21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1340,11 +1340,11 @@
         <v>11</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1361,11 +1361,11 @@
         <v>11</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1382,11 +1382,11 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1401,11 +1401,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -1418,40 +1418,40 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1478,11 +1478,11 @@
       <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1503,11 +1503,11 @@
       <c r="H30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1526,18 +1526,18 @@
         <v>11</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1547,11 +1547,11 @@
         <v>11</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1570,22 +1570,22 @@
       <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1598,14 +1598,14 @@
     </row>
     <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1616,14 +1616,14 @@
     </row>
     <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1634,14 +1634,14 @@
     </row>
     <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1652,40 +1652,40 @@
     </row>
     <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -1712,15 +1712,15 @@
       <c r="H51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>0</v>
@@ -1735,11 +1735,11 @@
         <v>11</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -1760,11 +1760,11 @@
         <v>11</v>
       </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -1781,11 +1781,11 @@
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -1802,18 +1802,18 @@
       <c r="H55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1823,56 +1823,56 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="I1:M6"/>
+    <mergeCell ref="I8:M16"/>
+    <mergeCell ref="I18:M25"/>
+    <mergeCell ref="I27:M33"/>
+    <mergeCell ref="I49:M55"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:H8"/>
@@ -1882,11 +1882,11 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I1:M6"/>
-    <mergeCell ref="I8:M16"/>
-    <mergeCell ref="I18:M25"/>
-    <mergeCell ref="I27:M33"/>
-    <mergeCell ref="I49:M55"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A50:H50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
